--- a/Buck/measurements.xlsx
+++ b/Buck/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A3FDC-CEA7-4948-9DAD-8C35FC7017AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8354A-EA98-478C-B39A-1F27A468DB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFF161D4-3CA4-4203-9143-0C5CCC171F8A}"/>
   </bookViews>
@@ -140,11 +140,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3106,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640CB08-0976-4583-837D-42B6B92346E8}">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -3176,11 +3176,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3228,14 +3228,14 @@
         <v>72</v>
       </c>
       <c r="E11">
-        <f>B11*A11</f>
+        <f t="shared" ref="E11:E25" si="0">B11*A11</f>
         <v>32.570999999999998</v>
       </c>
       <c r="F11">
-        <f>C11*45</f>
+        <f t="shared" ref="F11:F25" si="1">C11*45</f>
         <v>35.1</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>D11*12/1000</f>
         <v>0.86399999999999999</v>
       </c>
@@ -3243,7 +3243,7 @@
         <f>F11+G11</f>
         <v>35.963999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f>E11/H11</f>
         <v>0.90565565565565564</v>
       </c>
@@ -3267,27 +3267,27 @@
         <v>72</v>
       </c>
       <c r="E12">
-        <f>B12*A12</f>
+        <f t="shared" si="0"/>
         <v>39.944850000000002</v>
       </c>
       <c r="F12">
-        <f>C12*45</f>
+        <f t="shared" si="1"/>
         <v>42.75</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12:G25" si="0">D12*12/1000</f>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G25" si="2">D12*12/1000</f>
         <v>0.86399999999999999</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H25" si="1">F12+G12</f>
+        <f t="shared" ref="H12:H25" si="3">F12+G12</f>
         <v>43.613999999999997</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" ref="I12:I25" si="2">E12/H12</f>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I25" si="4">E12/H12</f>
         <v>0.91587219700096312</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J25" si="3">F12-E12</f>
+        <f t="shared" ref="J12:J25" si="5">F12-E12</f>
         <v>2.8051499999999976</v>
       </c>
     </row>
@@ -3302,31 +3302,31 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D25" si="4">D12</f>
+        <f t="shared" ref="D13:D25" si="6">D12</f>
         <v>72</v>
       </c>
       <c r="E13">
-        <f>B13*A13</f>
+        <f t="shared" si="0"/>
         <v>49.043749999999996</v>
       </c>
       <c r="F13">
-        <f>C13*45</f>
+        <f t="shared" si="1"/>
         <v>51.749999999999993</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
         <v>0.86399999999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.61399999999999</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="2"/>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
         <v>0.93214258562359842</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7062499999999972</v>
       </c>
     </row>
@@ -3341,31 +3341,31 @@
         <v>1.36</v>
       </c>
       <c r="D14">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>58.695599999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>61.2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>62.064</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E14">
-        <f>B14*A14</f>
-        <v>58.695599999999999</v>
-      </c>
-      <c r="F14">
-        <f>C14*45</f>
-        <v>61.2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>62.064</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="2"/>
         <v>0.94572699149265271</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.504400000000004</v>
       </c>
     </row>
@@ -3380,31 +3380,31 @@
         <v>1.63</v>
       </c>
       <c r="D15">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>70.731440000000006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>73.349999999999994</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>74.213999999999999</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E15">
-        <f>B15*A15</f>
-        <v>70.731440000000006</v>
-      </c>
-      <c r="F15">
-        <f>C15*45</f>
-        <v>73.349999999999994</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>74.213999999999999</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="2"/>
         <v>0.95307408305710528</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.618559999999988</v>
       </c>
     </row>
@@ -3419,31 +3419,31 @@
         <v>1.97</v>
       </c>
       <c r="D16">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>85.488</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>88.65</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>89.51400000000001</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E16">
-        <f>B16*A16</f>
-        <v>85.488</v>
-      </c>
-      <c r="F16">
-        <f>C16*45</f>
-        <v>88.65</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>89.51400000000001</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="2"/>
         <v>0.95502379516053348</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1620000000000061</v>
       </c>
     </row>
@@ -3458,31 +3458,31 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="D17">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>96.72</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>99.9</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>100.76400000000001</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E17">
-        <f>B17*A17</f>
-        <v>96.72</v>
-      </c>
-      <c r="F17">
-        <f>C17*45</f>
-        <v>99.9</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>100.76400000000001</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="2"/>
         <v>0.95986661903060611</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1800000000000068</v>
       </c>
     </row>
@@ -3497,31 +3497,31 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="D18">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>109.68</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>112.94999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>113.81399999999999</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <f>B18*A18</f>
-        <v>109.68</v>
-      </c>
-      <c r="F18">
-        <f>C18*45</f>
-        <v>112.94999999999999</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>113.81399999999999</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="2"/>
         <v>0.96367757920818187</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2699999999999818</v>
       </c>
     </row>
@@ -3536,31 +3536,31 @@
         <v>2.74</v>
       </c>
       <c r="D19">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>119.97799999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>123.30000000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>124.16400000000002</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E19">
-        <f>B19*A19</f>
-        <v>119.97799999999998</v>
-      </c>
-      <c r="F19">
-        <f>C19*45</f>
-        <v>123.30000000000001</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>124.16400000000002</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="2"/>
         <v>0.96628652427434658</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3220000000000312</v>
       </c>
     </row>
@@ -3575,31 +3575,31 @@
         <v>2.95</v>
       </c>
       <c r="D20">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>129.29900000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>132.75</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>133.614</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <f>B20*A20</f>
-        <v>129.29900000000001</v>
-      </c>
-      <c r="F20">
-        <f>C20*45</f>
-        <v>132.75</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>133.614</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="2"/>
         <v>0.96770547996467438</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4509999999999934</v>
       </c>
     </row>
@@ -3614,31 +3614,31 @@
         <v>3.25</v>
       </c>
       <c r="D21">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>142.20440000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>146.25</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>147.114</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E21">
-        <f>B21*A21</f>
-        <v>142.20440000000002</v>
-      </c>
-      <c r="F21">
-        <f>C21*45</f>
-        <v>146.25</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>147.114</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="2"/>
         <v>0.96662724145900469</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.045599999999979</v>
       </c>
     </row>
@@ -3653,31 +3653,31 @@
         <v>3.48</v>
       </c>
       <c r="D22">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>152.71250000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>156.6</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>157.464</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E22">
-        <f>B22*A22</f>
-        <v>152.71250000000001</v>
-      </c>
-      <c r="F22">
-        <f>C22*45</f>
-        <v>156.6</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>157.464</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="2"/>
         <v>0.96982484885434139</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8874999999999886</v>
       </c>
     </row>
@@ -3692,31 +3692,31 @@
         <v>3.83</v>
       </c>
       <c r="D23">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>167.55500000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>172.35</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>173.214</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E23">
-        <f>B23*A23</f>
-        <v>167.55500000000001</v>
-      </c>
-      <c r="F23">
-        <f>C23*45</f>
-        <v>172.35</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>173.214</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="2"/>
         <v>0.96732943064648358</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7949999999999875</v>
       </c>
     </row>
@@ -3731,31 +3731,31 @@
         <v>4.16</v>
       </c>
       <c r="D24">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>182.19200000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>188.06400000000002</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E24">
-        <f>B24*A24</f>
-        <v>182.19200000000001</v>
-      </c>
-      <c r="F24">
-        <f>C24*45</f>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>188.06400000000002</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="2"/>
         <v>0.96877658669389133</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0080000000000098</v>
       </c>
     </row>
@@ -3770,31 +3770,31 @@
         <v>4.46</v>
       </c>
       <c r="D25">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>194.22800000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>200.7</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>201.56399999999999</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E25">
-        <f>B25*A25</f>
-        <v>194.22800000000001</v>
-      </c>
-      <c r="F25">
-        <f>C25*45</f>
-        <v>200.7</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>201.56399999999999</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="2"/>
         <v>0.96360461193467095</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.47199999999998</v>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
         <f>F28+G28</f>
         <v>11.15</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f>E28/H28</f>
         <v>0.83962331838565007</v>
       </c>
@@ -3883,27 +3883,27 @@
         <v>75.214285714285708</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E44" si="5">B29*A29</f>
+        <f t="shared" ref="E29:E44" si="7">B29*A29</f>
         <v>12.6</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F44" si="6">C29*25</f>
+        <f t="shared" ref="F29:F44" si="8">C29*25</f>
         <v>13.5</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G44" si="7">D29*12/1000</f>
+        <f t="shared" ref="G29:G44" si="9">D29*12/1000</f>
         <v>0.90257142857142847</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H44" si="8">F29+G29</f>
+        <f t="shared" ref="H29:H44" si="10">F29+G29</f>
         <v>14.402571428571429</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" ref="I29:I44" si="9">E29/H29</f>
+      <c r="I29" s="2">
+        <f t="shared" ref="I29:I44" si="11">E29/H29</f>
         <v>0.87484377789680412</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J44" si="10">F29-E29</f>
+        <f t="shared" ref="J29:J44" si="12">F29-E29</f>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -3918,31 +3918,31 @@
         <v>0.81</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D44" si="11">D29+3/14</f>
+        <f t="shared" ref="D30:D44" si="13">D29+3/14</f>
         <v>75.428571428571416</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.152100000000001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.25</v>
       </c>
       <c r="G30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.90514285714285703</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21.155142857142856</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="9"/>
+      <c r="I30" s="2">
+        <f t="shared" si="11"/>
         <v>0.90531650527396257</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0978999999999992</v>
       </c>
     </row>
@@ -3957,31 +3957,31 @@
         <v>1.08</v>
       </c>
       <c r="D31">
+        <f t="shared" si="13"/>
+        <v>75.642857142857125</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="7"/>
+        <v>25.526999999999997</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>0.90771428571428558</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="10"/>
+        <v>27.907714285714285</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="11"/>
-        <v>75.642857142857125</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="5"/>
-        <v>25.526999999999997</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="7"/>
-        <v>0.90771428571428558</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="8"/>
-        <v>27.907714285714285</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="9"/>
         <v>0.91469332596209951</v>
       </c>
       <c r="J31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4730000000000025</v>
       </c>
     </row>
@@ -3996,31 +3996,31 @@
         <v>1.34</v>
       </c>
       <c r="D32">
+        <f t="shared" si="13"/>
+        <v>75.857142857142833</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="7"/>
+        <v>31.610299999999995</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>33.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0.91028571428571403</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>34.410285714285713</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="11"/>
-        <v>75.857142857142833</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="5"/>
-        <v>31.610299999999995</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="6"/>
-        <v>33.5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="7"/>
-        <v>0.91028571428571403</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="8"/>
-        <v>34.410285714285713</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="9"/>
         <v>0.91862939652595554</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8897000000000048</v>
       </c>
     </row>
@@ -4035,31 +4035,31 @@
         <v>1.62</v>
       </c>
       <c r="D33">
+        <f t="shared" si="13"/>
+        <v>76.071428571428541</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>38.3598</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>40.5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>0.91285714285714248</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>41.412857142857142</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="11"/>
-        <v>76.071428571428541</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="5"/>
-        <v>38.3598</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="6"/>
-        <v>40.5</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="7"/>
-        <v>0.91285714285714248</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="8"/>
-        <v>41.412857142857142</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="9"/>
         <v>0.92627755355479668</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1402000000000001</v>
       </c>
     </row>
@@ -4074,31 +4074,31 @@
         <v>1.85</v>
       </c>
       <c r="D34">
+        <f t="shared" si="13"/>
+        <v>76.285714285714249</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="7"/>
+        <v>43.746000000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>46.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>0.91542857142857104</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>47.165428571428571</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="11"/>
-        <v>76.285714285714249</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="5"/>
-        <v>43.746000000000002</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="6"/>
-        <v>46.25</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>0.91542857142857104</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>47.165428571428571</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="9"/>
         <v>0.92750137812804789</v>
       </c>
       <c r="J34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5039999999999978</v>
       </c>
     </row>
@@ -4113,31 +4113,31 @@
         <v>2.19</v>
       </c>
       <c r="D35">
+        <f t="shared" si="13"/>
+        <v>76.499999999999957</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="7"/>
+        <v>51.942999999999998</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>54.75</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>0.91799999999999959</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>55.667999999999999</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="11"/>
-        <v>76.499999999999957</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="5"/>
-        <v>51.942999999999998</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="6"/>
-        <v>54.75</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
-        <v>0.91799999999999959</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>55.667999999999999</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="9"/>
         <v>0.93308543507939923</v>
       </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8070000000000022</v>
       </c>
     </row>
@@ -4152,31 +4152,31 @@
         <v>2.35</v>
       </c>
       <c r="D36">
+        <f t="shared" si="13"/>
+        <v>76.714285714285666</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>55.944000000000003</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>58.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>0.92057142857142804</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>59.670571428571428</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="11"/>
-        <v>76.714285714285666</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="5"/>
-        <v>55.944000000000003</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="6"/>
-        <v>58.75</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
-        <v>0.92057142857142804</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>59.670571428571428</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="9"/>
         <v>0.93754758268014393</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8059999999999974</v>
       </c>
     </row>
@@ -4191,31 +4191,31 @@
         <v>2.65</v>
       </c>
       <c r="D37">
+        <f t="shared" si="13"/>
+        <v>76.928571428571374</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>63.378</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>66.25</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>0.92314285714285638</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>67.173142857142849</v>
+      </c>
+      <c r="I37" s="2">
         <f t="shared" si="11"/>
-        <v>76.928571428571374</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="5"/>
-        <v>63.378</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="6"/>
-        <v>66.25</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="7"/>
-        <v>0.92314285714285638</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
-        <v>67.173142857142849</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="9"/>
         <v>0.94350207991289048</v>
       </c>
       <c r="J37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8719999999999999</v>
       </c>
     </row>
@@ -4230,31 +4230,31 @@
         <v>2.9</v>
       </c>
       <c r="D38">
+        <f t="shared" si="13"/>
+        <v>77.142857142857082</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="7"/>
+        <v>69.95920000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>72.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>0.92571428571428493</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>73.425714285714278</v>
+      </c>
+      <c r="I38" s="2">
         <f t="shared" si="11"/>
-        <v>77.142857142857082</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="5"/>
-        <v>69.95920000000001</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="6"/>
-        <v>72.5</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="7"/>
-        <v>0.92571428571428493</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
-        <v>73.425714285714278</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="9"/>
         <v>0.95278882446787838</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5407999999999902</v>
       </c>
     </row>
@@ -4269,31 +4269,31 @@
         <v>3.14</v>
       </c>
       <c r="D39">
+        <f t="shared" si="13"/>
+        <v>77.35714285714279</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="7"/>
+        <v>75.888000000000005</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
+        <v>78.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>0.92828571428571349</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>79.428285714285707</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="11"/>
-        <v>77.35714285714279</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="5"/>
-        <v>75.888000000000005</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="6"/>
-        <v>78.5</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="7"/>
-        <v>0.92828571428571349</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>79.428285714285707</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="9"/>
         <v>0.95542789722265209</v>
       </c>
       <c r="J39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6119999999999948</v>
       </c>
     </row>
@@ -4308,31 +4308,31 @@
         <v>3.36</v>
       </c>
       <c r="D40">
+        <f t="shared" si="13"/>
+        <v>77.571428571428498</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="7"/>
+        <v>81.180000000000007</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>0.93085714285714194</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>84.930857142857135</v>
+      </c>
+      <c r="I40" s="2">
         <f t="shared" si="11"/>
-        <v>77.571428571428498</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="5"/>
-        <v>81.180000000000007</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="7"/>
-        <v>0.93085714285714194</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="8"/>
-        <v>84.930857142857135</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="9"/>
         <v>0.95583634418585894</v>
       </c>
       <c r="J40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8199999999999932</v>
       </c>
     </row>
@@ -4347,31 +4347,31 @@
         <v>3.58</v>
       </c>
       <c r="D41">
+        <f t="shared" si="13"/>
+        <v>77.785714285714207</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="7"/>
+        <v>86.515000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>89.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>0.93342857142857039</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>90.433428571428564</v>
+      </c>
+      <c r="I41" s="2">
         <f t="shared" si="11"/>
-        <v>77.785714285714207</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="5"/>
-        <v>86.515000000000001</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="6"/>
-        <v>89.5</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="7"/>
-        <v>0.93342857142857039</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>90.433428571428564</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="9"/>
         <v>0.95667057377644815</v>
       </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9849999999999994</v>
       </c>
     </row>
@@ -4386,31 +4386,31 @@
         <v>3.81</v>
       </c>
       <c r="D42">
+        <f t="shared" si="13"/>
+        <v>77.999999999999915</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="7"/>
+        <v>91.035000000000011</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>95.25</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>0.93599999999999894</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>96.185999999999993</v>
+      </c>
+      <c r="I42" s="2">
         <f t="shared" si="11"/>
-        <v>77.999999999999915</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="5"/>
-        <v>91.035000000000011</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="6"/>
-        <v>95.25</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="7"/>
-        <v>0.93599999999999894</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="8"/>
-        <v>96.185999999999993</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="9"/>
         <v>0.94644750795334054</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.2149999999999892</v>
       </c>
     </row>
@@ -4425,31 +4425,31 @@
         <v>4</v>
       </c>
       <c r="D43">
+        <f t="shared" si="13"/>
+        <v>78.214285714285623</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="7"/>
+        <v>95.58</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>0.9385714285714275</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>100.93857142857142</v>
+      </c>
+      <c r="I43" s="2">
         <f t="shared" si="11"/>
-        <v>78.214285714285623</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="5"/>
-        <v>95.58</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="7"/>
-        <v>0.9385714285714275</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="8"/>
-        <v>100.93857142857142</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="9"/>
         <v>0.94691254935816693</v>
       </c>
       <c r="J43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.4200000000000017</v>
       </c>
     </row>
@@ -4464,31 +4464,31 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="D44">
+        <f t="shared" si="13"/>
+        <v>78.428571428571331</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="7"/>
+        <v>96.800000000000011</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>103.75000000000001</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>0.94114285714285595</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>104.69114285714286</v>
+      </c>
+      <c r="I44" s="2">
         <f t="shared" si="11"/>
-        <v>78.428571428571331</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="5"/>
-        <v>96.800000000000011</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="6"/>
-        <v>103.75000000000001</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="7"/>
-        <v>0.94114285714285595</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="8"/>
-        <v>104.69114285714286</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="9"/>
         <v>0.92462454184963117</v>
       </c>
       <c r="J44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.9500000000000028</v>
       </c>
     </row>

--- a/Buck/measurements.xlsx
+++ b/Buck/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8354A-EA98-478C-B39A-1F27A468DB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461709A9-3DF3-42ED-88F5-072DB423BBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFF161D4-3CA4-4203-9143-0C5CCC171F8A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AFF161D4-3CA4-4203-9143-0C5CCC171F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,26 +224,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -252,9 +232,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12041994750656168"/>
+          <c:x val="0.13209023080107496"/>
           <c:y val="0.13747617577047028"/>
-          <c:w val="0.83700798690486267"/>
+          <c:w val="0.82533771536662925"/>
           <c:h val="0.73006994431353123"/>
         </c:manualLayout>
       </c:layout>
@@ -410,7 +390,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF50-45D3-949C-9500F2BABA65}"/>
+              <c16:uniqueId val="{00000002-47C5-4C9A-A23C-03835EEB0A98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -428,15 +408,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -561,7 +532,7 @@
                   <c:v>0.95667057377644815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94644750795334054</c:v>
+                  <c:v>0.95139309825888863</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.94691254935816693</c:v>
@@ -575,7 +546,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF50-45D3-949C-9500F2BABA65}"/>
+              <c16:uniqueId val="{00000004-47C5-4C9A-A23C-03835EEB0A98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,26 +611,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
@@ -760,26 +711,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -823,13 +754,6 @@
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -874,30 +798,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1286,7 +1189,7 @@
                   <c:v>2.9849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2149999999999892</c:v>
+                  <c:v>3.7149999999999892</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.4200000000000017</c:v>
@@ -1600,563 +1503,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2683,14 +2030,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3106,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640CB08-0976-4583-837D-42B6B92346E8}">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,7 +3730,7 @@
         <v>7.65</v>
       </c>
       <c r="C42">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="D42">
         <f t="shared" si="13"/>
@@ -4395,7 +3742,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>95.25</v>
+        <v>94.75</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
@@ -4403,15 +3750,15 @@
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
-        <v>96.185999999999993</v>
+        <v>95.685999999999993</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="11"/>
-        <v>0.94644750795334054</v>
+        <v>0.95139309825888863</v>
       </c>
       <c r="J42">
         <f t="shared" si="12"/>
-        <v>4.2149999999999892</v>
+        <v>3.7149999999999892</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">

--- a/Buck/measurements.xlsx
+++ b/Buck/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461709A9-3DF3-42ED-88F5-072DB423BBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A562BA-0975-4763-9598-D9AF264E5780}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AFF161D4-3CA4-4203-9143-0C5CCC171F8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFF161D4-3CA4-4203-9143-0C5CCC171F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640CB08-0976-4583-837D-42B6B92346E8}">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,14 +2464,14 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3074</v>
+        <v>4096</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
         <f>B2/4096*3.3*106.2/6.2</f>
-        <v>42.421955330141117</v>
+        <v>56.525806451612901</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -2482,14 +2482,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
         <f>B3/4096*3.3/50/0.006</f>
-        <v>0.86743164062499989</v>
+        <v>1.017822265625</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -2500,14 +2500,14 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
         <f>B5*0.006*51</f>
-        <v>0.45900000000000007</v>
+        <v>3.06</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -2516,10 +2516,16 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <f>D5/3.3*4096</f>
-        <v>569.71636363636378</v>
+        <v>3798.1090909090913</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>380*145</f>
+        <v>55100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
